--- a/Config/data_config/Item.xlsx
+++ b/Config/data_config/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="10845"/>
+    <workbookView windowWidth="28440" windowHeight="11280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1168,7 +1168,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Config/data_config/Item.xlsx
+++ b/Config/data_config/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="11280"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>22000001</v>
+        <v>10001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
